--- a/DATA/GHANA/Station_Details_Ghana.xlsx
+++ b/DATA/GHANA/Station_Details_Ghana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrobledodelgado/Documents/GitHub/FFWestAfrica/DATA/GHANA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8D2FB340-D56B-F147-BE72-94280113002B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22E72F6-8FE8-E245-81D7-E8CD6055A324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="14680" windowHeight="8640" activeTab="1" xr2:uid="{8FE18A1F-226A-4143-8497-5EC876771B27}"/>
+    <workbookView xWindow="53300" yWindow="-6320" windowWidth="23240" windowHeight="23640" activeTab="1" xr2:uid="{8FE18A1F-226A-4143-8497-5EC876771B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Station_Details_Ghana90m" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="47">
   <si>
     <t>fid</t>
   </si>
@@ -90,6 +90,78 @@
   </si>
   <si>
     <t>usage</t>
+  </si>
+  <si>
+    <t>1999-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2022-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2014-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2016-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2011-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2003-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2015-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>1997-02-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2007-02-28 00:00:00</t>
+  </si>
+  <si>
+    <t>1995-08-01 00:00:00</t>
+  </si>
+  <si>
+    <t>1975-04-22 00:00:00</t>
+  </si>
+  <si>
+    <t>1975-01-04 00:00:00</t>
+  </si>
+  <si>
+    <t>1975-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2000-end</t>
+  </si>
+  <si>
+    <t>1975-01-09 00:00:00</t>
+  </si>
+  <si>
+    <t>1975-06-04 00:00:00</t>
+  </si>
+  <si>
+    <t>1975-07-10 00:00:00</t>
+  </si>
+  <si>
+    <t>1998-10-28 00:00:00</t>
+  </si>
+  <si>
+    <t>2003-end</t>
+  </si>
+  <si>
+    <t>1979-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2006-12-31 00:00:00</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>deleted</t>
   </si>
 </sst>
 </file>
@@ -450,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -580,6 +652,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -625,24 +708,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1707,47 +1795,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FCA36-8DCC-0A40-853A-68ECFB4B3131}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1766,18 +1857,20 @@
       <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H2" s="6">
-        <v>40908</v>
-      </c>
-      <c r="I2" s="5"/>
+      <c r="G2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1796,18 +1889,20 @@
       <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H3" s="6">
-        <v>40908</v>
-      </c>
-      <c r="I3" s="5"/>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1826,18 +1921,20 @@
       <c r="F4" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G4" s="6">
-        <v>37622</v>
-      </c>
-      <c r="H4" s="6">
-        <v>42369</v>
-      </c>
-      <c r="I4" s="5"/>
+      <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1856,11 +1953,11 @@
       <c r="F5" s="4">
         <v>20.873200000000001</v>
       </c>
-      <c r="G5" s="7">
-        <v>36161</v>
-      </c>
-      <c r="H5" s="7">
-        <v>42004</v>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>12</v>
@@ -1869,7 +1966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1888,20 +1985,20 @@
       <c r="F6" s="4">
         <v>6.5090000000000003</v>
       </c>
-      <c r="G6" s="7">
-        <v>36161</v>
-      </c>
-      <c r="H6" s="7">
-        <v>42735</v>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1920,11 +2017,11 @@
       <c r="F7" s="4">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="G7" s="7">
-        <v>36161</v>
-      </c>
-      <c r="H7" s="7">
-        <v>44561</v>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>15</v>
@@ -1933,7 +2030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1952,18 +2049,20 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H8" s="6">
-        <v>44926</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1982,18 +2081,20 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H9" s="6">
-        <v>44926</v>
-      </c>
-      <c r="I9" s="5"/>
+      <c r="G9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="J9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2010,20 +2111,22 @@
         <v>9</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H10" s="6">
-        <v>44926</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2040,13 +2143,13 @@
         <v>9</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>28856</v>
-      </c>
-      <c r="H11" s="7">
-        <v>39082</v>
+        <v>32.71</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>17</v>
@@ -2055,99 +2158,98 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>1526801</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>5.3800984600000001</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>-0.59602025999999997</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
         <v>37.073500000000003</v>
       </c>
-      <c r="G12" s="10">
-        <v>28856</v>
-      </c>
-      <c r="H12" s="10">
-        <v>39113</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>1531050</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>10.63749677</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>-2.9375878100000001</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
         <v>37.652099999999997</v>
       </c>
-      <c r="G13" s="7">
-        <v>27395</v>
-      </c>
-      <c r="H13" s="7">
-        <v>39141</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="G13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1531100</v>
+      </c>
+      <c r="C14" s="16">
+        <v>8.1463217799999992</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-2.0370001200000001</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="16">
+        <v>56.5124</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1531100</v>
-      </c>
-      <c r="C14" s="5">
-        <v>8.1463217799999992</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-2.0370001200000001</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H14" s="6">
-        <v>44196</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2166,77 +2268,82 @@
       <c r="F15" s="5">
         <v>2.1996000000000002</v>
       </c>
-      <c r="G15" s="6">
-        <v>36096</v>
-      </c>
-      <c r="H15" s="6">
-        <v>39141</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="G15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="16">
         <v>1531420</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="16">
         <v>10.245657420000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="16">
         <v>-1.2876184799999999</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H16" s="6">
-        <v>44196</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
+      <c r="E16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="16">
+        <v>73.28</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <v>1531430</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>10.33779895</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>-1.32900525</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
         <v>70.187299999999993</v>
       </c>
-      <c r="G17" s="7">
-        <v>27506</v>
-      </c>
-      <c r="H17" s="7">
-        <v>39141</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="G17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>18</v>
+      <c r="J17" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2256,15 +2363,17 @@
         <v>9</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H18" s="6">
-        <v>44926</v>
-      </c>
-      <c r="I18" s="5"/>
+        <v>10.811199999999999</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
@@ -2286,15 +2395,17 @@
         <v>9</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H19" s="6">
-        <v>44926</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>57.46</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
       </c>
@@ -2318,14 +2429,14 @@
       <c r="F20" s="4">
         <v>69.431100000000001</v>
       </c>
-      <c r="G20" s="7">
-        <v>27398</v>
-      </c>
-      <c r="H20" s="7">
-        <v>39141</v>
+      <c r="G20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>18</v>
@@ -2350,11 +2461,11 @@
       <c r="F21" s="4">
         <v>88.621600000000001</v>
       </c>
-      <c r="G21" s="7">
-        <v>27585</v>
-      </c>
-      <c r="H21" s="7">
-        <v>39141</v>
+      <c r="G21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>21</v>
@@ -2380,161 +2491,166 @@
         <v>9</v>
       </c>
       <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>36161</v>
-      </c>
-      <c r="H22" s="6">
-        <v>44196</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>13.61</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="12"/>
+    </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
